--- a/Gates/Figures/wv_clean.xlsx
+++ b/Gates/Figures/wv_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelfpb/Documents/Research/Scripts/Gates/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826F16A3-8E8B-084A-8BDA-631230659F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A1D89-A34D-8E4C-9FDC-5DE6A4BAEC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17480" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17460" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,37 +867,37 @@
         <v>0.01</v>
       </c>
       <c r="D10">
-        <v>2.5299999999999998</v>
+        <v>1.54</v>
       </c>
       <c r="E10">
-        <v>3.32</v>
+        <v>1.37</v>
       </c>
       <c r="F10">
-        <v>4.3</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="G10">
-        <v>4.42</v>
+        <v>0.58299999999999996</v>
       </c>
       <c r="H10">
-        <v>4.8</v>
+        <v>0.498</v>
       </c>
       <c r="I10">
-        <v>4.0199999999999996</v>
+        <v>0.79</v>
       </c>
       <c r="J10">
-        <v>3.35</v>
+        <v>1.18</v>
       </c>
       <c r="K10">
-        <v>2.34</v>
+        <v>1.28</v>
       </c>
       <c r="L10">
-        <v>1.91</v>
+        <v>1.19</v>
       </c>
       <c r="M10">
-        <v>1.32</v>
+        <v>0.88</v>
       </c>
       <c r="N10">
-        <v>1.2</v>
+        <v>0.91700000000000004</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -911,37 +911,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D11">
-        <v>6.3</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E11">
-        <v>6.9</v>
+        <v>0.97</v>
       </c>
       <c r="F11">
-        <v>8.4600000000000009</v>
+        <v>1.581</v>
       </c>
       <c r="G11">
-        <v>7.81</v>
+        <v>2.16</v>
       </c>
       <c r="H11">
-        <v>7.72</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="I11">
-        <v>5.54</v>
+        <v>3.09</v>
       </c>
       <c r="J11">
-        <v>4.3099999999999996</v>
+        <v>3.27</v>
       </c>
       <c r="K11">
-        <v>2.84</v>
+        <v>3.97</v>
       </c>
       <c r="L11">
-        <v>1.93</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="M11">
-        <v>1.88</v>
+        <v>5.4</v>
       </c>
       <c r="N11">
-        <v>2.8</v>
+        <v>5.57</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -955,37 +955,37 @@
         <v>0.01</v>
       </c>
       <c r="D12">
-        <v>1.25</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E12">
-        <v>1.48</v>
+        <v>0.94</v>
       </c>
       <c r="F12">
-        <v>2.1800000000000002</v>
+        <v>0.98899999999999999</v>
       </c>
       <c r="G12">
-        <v>3.98</v>
+        <v>1.58</v>
       </c>
       <c r="H12">
-        <v>4.91</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I12">
-        <v>5.81</v>
+        <v>3.23</v>
       </c>
       <c r="J12">
-        <v>5.18</v>
+        <v>3.75</v>
       </c>
       <c r="K12">
-        <v>4.6500000000000004</v>
+        <v>2.93</v>
       </c>
       <c r="L12">
-        <v>4.22</v>
+        <v>1.81</v>
       </c>
       <c r="M12">
-        <v>3.39</v>
+        <v>0.52</v>
       </c>
       <c r="N12">
-        <v>3.43</v>
+        <v>0.64500000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -999,37 +999,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D13">
-        <v>2.65</v>
+        <v>0.95</v>
       </c>
       <c r="E13">
-        <v>3.33</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="F13">
-        <v>4.1500000000000004</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="G13">
-        <v>4.87</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="H13">
-        <v>5.26</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="I13">
-        <v>4.2300000000000004</v>
+        <v>0.32</v>
       </c>
       <c r="J13">
-        <v>3.77</v>
+        <v>0.48</v>
       </c>
       <c r="K13">
-        <v>2.86</v>
+        <v>0.6</v>
       </c>
       <c r="L13">
-        <v>2.62</v>
+        <v>1.31</v>
       </c>
       <c r="M13">
-        <v>2.76</v>
+        <v>1.9</v>
       </c>
       <c r="N13">
-        <v>3.58</v>
+        <v>2.5019999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1395,37 +1395,37 @@
         <v>0.01</v>
       </c>
       <c r="D22">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="E22">
-        <v>1.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F22">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="G22">
-        <v>2.25</v>
+        <v>2.42</v>
       </c>
       <c r="H22">
-        <v>2.2000000000000002</v>
+        <v>2.61</v>
       </c>
       <c r="I22">
-        <v>2.39</v>
+        <v>3.79</v>
       </c>
       <c r="J22">
-        <v>1.77</v>
+        <v>3.5</v>
       </c>
       <c r="K22">
-        <v>1.55</v>
+        <v>3.61</v>
       </c>
       <c r="L22">
-        <v>1.32</v>
+        <v>3.89</v>
       </c>
       <c r="M22">
-        <v>1.33</v>
+        <v>3.99</v>
       </c>
       <c r="N22">
-        <v>1.74</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
@@ -1439,37 +1439,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D23">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="E23">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="F23">
-        <v>1.74</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="G23">
-        <v>2.08</v>
+        <v>0.99</v>
       </c>
       <c r="H23">
-        <v>1.81</v>
+        <v>0.88</v>
       </c>
       <c r="I23">
-        <v>1.59</v>
+        <v>0.99</v>
       </c>
       <c r="J23">
-        <v>1.1499999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="K23">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="L23">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="M23">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="N23">
-        <v>2.11</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -1483,37 +1483,37 @@
         <v>0.01</v>
       </c>
       <c r="D24">
-        <v>0.34</v>
+        <v>3.52</v>
       </c>
       <c r="E24">
-        <v>0.66</v>
+        <v>3.7</v>
       </c>
       <c r="F24">
-        <v>0.84</v>
+        <v>3.1</v>
       </c>
       <c r="G24">
-        <v>1.17</v>
+        <v>2.42</v>
       </c>
       <c r="H24">
-        <v>1.4</v>
+        <v>1.74</v>
       </c>
       <c r="I24">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="J24">
-        <v>2.04</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K24">
-        <v>2.3199999999999998</v>
+        <v>1.36</v>
       </c>
       <c r="L24">
-        <v>3.05</v>
+        <v>1.79</v>
       </c>
       <c r="M24">
-        <v>3.32</v>
+        <v>2.41</v>
       </c>
       <c r="N24">
-        <v>3.83</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
@@ -1527,37 +1527,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D25">
-        <v>0.76</v>
+        <v>5.78</v>
       </c>
       <c r="E25">
-        <v>1.43</v>
+        <v>6.93</v>
       </c>
       <c r="F25">
-        <v>1.8</v>
+        <v>6.55</v>
       </c>
       <c r="G25">
-        <v>2.33</v>
+        <v>5.51</v>
       </c>
       <c r="H25">
-        <v>2.4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I25">
-        <v>2.2599999999999998</v>
+        <v>3.51</v>
       </c>
       <c r="J25">
-        <v>2.1</v>
+        <v>2.82</v>
       </c>
       <c r="K25">
-        <v>1.94</v>
+        <v>1.65</v>
       </c>
       <c r="L25">
-        <v>2.04</v>
+        <v>1.02</v>
       </c>
       <c r="M25">
-        <v>2.6</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N25">
-        <v>2.8</v>
+        <v>0.71</v>
       </c>
     </row>
   </sheetData>

--- a/Gates/Figures/wv_clean.xlsx
+++ b/Gates/Figures/wv_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelfpb/Documents/Research/Scripts/Gates/Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noelp\Documents\Kanazawa\Scripts_Kanazawa\Gates\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460A1D89-A34D-8E4C-9FDC-5DE6A4BAEC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAF02D-44D0-4B44-8B2E-F2B4BDD7C909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17460" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,13 +444,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A87CCA-59E7-D045-87EB-6932423A68D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -504,7 +504,7 @@
         <v>1552.0000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>2.3199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>3.74</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -691,40 +691,40 @@
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>3.02</v>
+        <v>2.5419999999999998</v>
       </c>
       <c r="E6">
-        <v>2.65</v>
+        <v>2.7050000000000001</v>
       </c>
       <c r="F6">
-        <v>2.37</v>
+        <v>2.472</v>
       </c>
       <c r="G6">
-        <v>2.0830000000000002</v>
+        <v>1.617</v>
       </c>
       <c r="H6">
-        <v>1.66</v>
+        <v>0.95</v>
       </c>
       <c r="I6">
-        <v>1.96</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="J6">
-        <v>1.75</v>
+        <v>0.51700000000000002</v>
       </c>
       <c r="K6">
-        <v>1.64</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="L6">
-        <v>1.34</v>
+        <v>1.252</v>
       </c>
       <c r="M6">
-        <v>1.26</v>
+        <v>1.1379999999999999</v>
       </c>
       <c r="N6">
-        <v>1.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.2569999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -735,40 +735,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D7">
-        <v>4.04</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="E7">
-        <v>4.25</v>
+        <v>1.2889999999999999</v>
       </c>
       <c r="F7">
-        <v>4.43</v>
+        <v>1.734</v>
       </c>
       <c r="G7">
-        <v>4.24</v>
+        <v>2.3109999999999999</v>
       </c>
       <c r="H7">
-        <v>3.55</v>
+        <v>2.6760000000000002</v>
       </c>
       <c r="I7">
-        <v>4.07</v>
+        <v>3.1280000000000001</v>
       </c>
       <c r="J7">
-        <v>3.77</v>
+        <v>3.419</v>
       </c>
       <c r="K7">
-        <v>3.82</v>
+        <v>3.625</v>
       </c>
       <c r="L7">
-        <v>4.13</v>
+        <v>4.306</v>
       </c>
       <c r="M7">
-        <v>3.89</v>
+        <v>3.782</v>
       </c>
       <c r="N7">
-        <v>3.26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.7280000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -779,40 +779,40 @@
         <v>0.01</v>
       </c>
       <c r="D8">
-        <v>4.6100000000000003</v>
+        <v>6.4660000000000002</v>
       </c>
       <c r="E8">
-        <v>3.88</v>
+        <v>6.5620000000000003</v>
       </c>
       <c r="F8">
-        <v>4.01</v>
+        <v>6.9189999999999996</v>
       </c>
       <c r="G8">
-        <v>3.95</v>
+        <v>5.4569999999999999</v>
       </c>
       <c r="H8">
-        <v>3.73</v>
+        <v>4.6420000000000003</v>
       </c>
       <c r="I8">
-        <v>4.2699999999999996</v>
+        <v>4.0620000000000003</v>
       </c>
       <c r="J8">
-        <v>3.23</v>
+        <v>3.6589999999999998</v>
       </c>
       <c r="K8">
-        <v>2.4300000000000002</v>
+        <v>3.4279999999999999</v>
       </c>
       <c r="L8">
-        <v>1.43</v>
+        <v>2.653</v>
       </c>
       <c r="M8">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="N8">
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.64400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -823,40 +823,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D9">
-        <v>5.01</v>
+        <v>3.556</v>
       </c>
       <c r="E9">
-        <v>4.78</v>
+        <v>4.17</v>
       </c>
       <c r="F9">
-        <v>4.9000000000000004</v>
+        <v>5.12</v>
       </c>
       <c r="G9">
+        <v>4.9290000000000003</v>
+      </c>
+      <c r="H9">
         <v>4.7</v>
       </c>
-      <c r="H9">
-        <v>3.96</v>
-      </c>
       <c r="I9">
-        <v>4.0999999999999996</v>
+        <v>4.1879999999999997</v>
       </c>
       <c r="J9">
-        <v>3.22</v>
+        <v>3.839</v>
       </c>
       <c r="K9">
-        <v>2.68</v>
+        <v>3.4980000000000002</v>
       </c>
       <c r="L9">
-        <v>2.33</v>
+        <v>3.2480000000000002</v>
       </c>
       <c r="M9">
-        <v>2.2599999999999998</v>
+        <v>2.6520000000000001</v>
       </c>
       <c r="N9">
-        <v>2.27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -944,7 +944,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>2.5019999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1043,40 +1043,40 @@
         <v>0.01</v>
       </c>
       <c r="D14">
-        <v>1.84</v>
+        <v>1.383</v>
       </c>
       <c r="E14">
-        <v>1.79</v>
+        <v>1.9510000000000001</v>
       </c>
       <c r="F14">
-        <v>2.0499999999999998</v>
+        <v>2.3969999999999998</v>
       </c>
       <c r="G14">
-        <v>2.0299999999999998</v>
+        <v>2.5550000000000002</v>
       </c>
       <c r="H14">
-        <v>2.73</v>
+        <v>2.9689999999999999</v>
       </c>
       <c r="I14">
-        <v>2.5099999999999998</v>
+        <v>3.07</v>
       </c>
       <c r="J14">
-        <v>3.94</v>
+        <v>2.778</v>
       </c>
       <c r="K14">
-        <v>4.26</v>
+        <v>2.1440000000000001</v>
       </c>
       <c r="L14">
-        <v>5.0199999999999996</v>
+        <v>1.75</v>
       </c>
       <c r="M14">
-        <v>3.86</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="N14">
-        <v>3.56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1.369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1087,40 +1087,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D15">
-        <v>1.48</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="E15">
-        <v>1.52</v>
+        <v>1.282</v>
       </c>
       <c r="F15">
-        <v>2.0299999999999998</v>
+        <v>1.96</v>
       </c>
       <c r="G15">
-        <v>2.34</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="H15">
-        <v>2.78</v>
+        <v>2.835</v>
       </c>
       <c r="I15">
-        <v>2.62</v>
+        <v>3.0390000000000001</v>
       </c>
       <c r="J15">
-        <v>3.4</v>
+        <v>2.927</v>
       </c>
       <c r="K15">
-        <v>3.74</v>
+        <v>2.6030000000000002</v>
       </c>
       <c r="L15">
-        <v>3.77</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="M15">
-        <v>3.72</v>
+        <v>1.798</v>
       </c>
       <c r="N15">
-        <v>3.73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.1789999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1131,40 +1131,40 @@
         <v>0.01</v>
       </c>
       <c r="D16">
-        <v>3.88</v>
+        <v>1.712</v>
       </c>
       <c r="E16">
-        <v>3.06</v>
+        <v>1.7669999999999999</v>
       </c>
       <c r="F16">
-        <v>2.202</v>
+        <v>2.2160000000000002</v>
       </c>
       <c r="G16">
-        <v>1.7</v>
+        <v>2.3570000000000002</v>
       </c>
       <c r="H16">
-        <v>1.86</v>
+        <v>2.919</v>
       </c>
       <c r="I16">
-        <v>2.4900000000000002</v>
+        <v>2.899</v>
       </c>
       <c r="J16">
-        <v>3.9</v>
+        <v>2.7610000000000001</v>
       </c>
       <c r="K16">
-        <v>4.0999999999999996</v>
+        <v>2.8639999999999999</v>
       </c>
       <c r="L16">
-        <v>4.33</v>
+        <v>2.9420000000000002</v>
       </c>
       <c r="M16">
-        <v>2.81</v>
+        <v>3.4340000000000002</v>
       </c>
       <c r="N16">
-        <v>2.0830000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.6110000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1175,40 +1175,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D17">
-        <v>2.21</v>
+        <v>0.71899999999999997</v>
       </c>
       <c r="E17">
-        <v>1.55</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="F17">
-        <v>0.9</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="G17">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="H17">
-        <v>0.93</v>
+        <v>0.63</v>
       </c>
       <c r="I17">
-        <v>1.07</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="J17">
-        <v>1.56</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="K17">
-        <v>1.9</v>
+        <v>1.361</v>
       </c>
       <c r="L17">
-        <v>2.2799999999999998</v>
+        <v>1.9119999999999999</v>
       </c>
       <c r="M17">
-        <v>2.36</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="N17">
-        <v>2.72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1219,40 +1219,40 @@
         <v>0.01</v>
       </c>
       <c r="D18">
-        <v>1.31</v>
+        <v>3.391</v>
       </c>
       <c r="E18">
-        <v>2.02</v>
+        <v>4.1159999999999997</v>
       </c>
       <c r="F18">
-        <v>3.18</v>
+        <v>4.5110000000000001</v>
       </c>
       <c r="G18">
-        <v>4.25</v>
+        <v>4.641</v>
       </c>
       <c r="H18">
-        <v>4.6399999999999997</v>
+        <v>4.8250000000000002</v>
       </c>
       <c r="I18">
-        <v>4.37</v>
+        <v>5.024</v>
       </c>
       <c r="J18">
-        <v>4.72</v>
+        <v>4.7460000000000004</v>
       </c>
       <c r="K18">
-        <v>4.42</v>
+        <v>4.6459999999999999</v>
       </c>
       <c r="L18">
-        <v>3.47</v>
+        <v>3.7839999999999998</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="N18">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2.6960000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1263,40 +1263,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D19">
-        <v>0.62</v>
+        <v>2.1150000000000002</v>
       </c>
       <c r="E19">
-        <v>0.65</v>
+        <v>1.77</v>
       </c>
       <c r="F19">
-        <v>0.99</v>
+        <v>1.3160000000000001</v>
       </c>
       <c r="G19">
-        <v>1.42</v>
+        <v>0.995</v>
       </c>
       <c r="H19">
-        <v>1.72</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="I19">
-        <v>1.95</v>
+        <v>1.135</v>
       </c>
       <c r="J19">
-        <v>2.2599999999999998</v>
+        <v>1.528</v>
       </c>
       <c r="K19">
-        <v>2.2599999999999998</v>
+        <v>1.7989999999999999</v>
       </c>
       <c r="L19">
-        <v>1.81</v>
+        <v>2.11</v>
       </c>
       <c r="M19">
-        <v>1.08</v>
+        <v>2.7530000000000001</v>
       </c>
       <c r="N19">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>3.8079999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1307,40 +1307,40 @@
         <v>0.01</v>
       </c>
       <c r="D20">
-        <v>2.73</v>
+        <v>2.1739999999999999</v>
       </c>
       <c r="E20">
-        <v>2.36</v>
+        <v>1.9330000000000001</v>
       </c>
       <c r="F20">
-        <v>2.4</v>
+        <v>1.5169999999999999</v>
       </c>
       <c r="G20">
-        <v>2.17</v>
+        <v>1.5620000000000001</v>
       </c>
       <c r="H20">
-        <v>1.97</v>
+        <v>1.349</v>
       </c>
       <c r="I20">
-        <v>1.35</v>
+        <v>1.2490000000000001</v>
       </c>
       <c r="J20">
-        <v>1.26</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="K20">
-        <v>1.18</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="L20">
-        <v>1.03</v>
+        <v>0.58399999999999996</v>
       </c>
       <c r="M20">
-        <v>1.07</v>
+        <v>0.438</v>
       </c>
       <c r="N20">
-        <v>1.1499999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.27200000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1351,40 +1351,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D21">
-        <v>2.4500000000000002</v>
+        <v>2.4420000000000002</v>
       </c>
       <c r="E21">
-        <v>1.85</v>
+        <v>2.0939999999999999</v>
       </c>
       <c r="F21">
-        <v>1.58</v>
+        <v>1.413</v>
       </c>
       <c r="G21">
-        <v>1.53</v>
+        <v>1.466</v>
       </c>
       <c r="H21">
-        <v>1.69</v>
+        <v>1.542</v>
       </c>
       <c r="I21">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="J21">
-        <v>1.46</v>
+        <v>1.044</v>
       </c>
       <c r="K21">
-        <v>1.57</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="L21">
-        <v>1.52</v>
+        <v>0.37</v>
       </c>
       <c r="M21">
-        <v>1.5</v>
+        <v>0.31</v>
       </c>
       <c r="N21">
-        <v>1.69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>

--- a/Gates/Figures/wv_clean.xlsx
+++ b/Gates/Figures/wv_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noelp\Documents\Kanazawa\Scripts_Kanazawa\Gates\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BAF02D-44D0-4B44-8B2E-F2B4BDD7C909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE9A88-48F5-452A-8946-120D7A2EF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A87CCA-59E7-D045-87EB-6932423A68D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29:P33"/>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -515,37 +515,37 @@
         <v>0.01</v>
       </c>
       <c r="D2">
-        <v>1.1299999999999999</v>
+        <v>5.173</v>
       </c>
       <c r="E2">
-        <v>0.75</v>
+        <v>4.28</v>
       </c>
       <c r="F2">
-        <v>0.59</v>
+        <v>2.3639999999999999</v>
       </c>
       <c r="G2">
-        <v>0.82</v>
+        <v>1.218</v>
       </c>
       <c r="H2">
-        <v>1.37</v>
+        <v>0.91600000000000004</v>
       </c>
       <c r="I2">
-        <v>1.65</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="J2">
-        <v>2.25</v>
+        <v>2.1739999999999999</v>
       </c>
       <c r="K2">
-        <v>2.2599999999999998</v>
+        <v>2.5680000000000001</v>
       </c>
       <c r="L2">
-        <v>1.97</v>
+        <v>2.653</v>
       </c>
       <c r="M2">
-        <v>1.72</v>
+        <v>2.7440000000000002</v>
       </c>
       <c r="N2">
-        <v>1.8</v>
+        <v>2.2759999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -559,37 +559,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D3">
-        <v>1.35</v>
+        <v>5.2060000000000004</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5.4720000000000004</v>
       </c>
       <c r="F3">
-        <v>0.69</v>
+        <v>4.4749999999999996</v>
       </c>
       <c r="G3">
-        <v>0.74</v>
+        <v>3.3319999999999999</v>
       </c>
       <c r="H3">
-        <v>0.92</v>
+        <v>1.722</v>
       </c>
       <c r="I3">
-        <v>1.1499999999999999</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="J3">
-        <v>0.95</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="K3">
-        <v>0.62</v>
+        <v>0.29799999999999999</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="N3">
-        <v>2.3199999999999998</v>
+        <v>1.157</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -603,37 +603,37 @@
         <v>0.01</v>
       </c>
       <c r="D4">
+        <v>3.4649999999999999</v>
+      </c>
+      <c r="E4">
+        <v>4.2480000000000002</v>
+      </c>
+      <c r="F4">
+        <v>3.82</v>
+      </c>
+      <c r="G4">
+        <v>3.3180000000000001</v>
+      </c>
+      <c r="H4">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="I4">
         <v>0.95</v>
       </c>
-      <c r="E4">
-        <v>0.77</v>
-      </c>
-      <c r="F4">
-        <v>0.9</v>
-      </c>
-      <c r="G4">
-        <v>1.21</v>
-      </c>
-      <c r="H4">
-        <v>1.34</v>
-      </c>
-      <c r="I4">
-        <v>1.1499999999999999</v>
-      </c>
       <c r="J4">
-        <v>0.62</v>
+        <v>0.35099999999999998</v>
       </c>
       <c r="K4">
-        <v>0.32</v>
+        <v>0.21099999999999999</v>
       </c>
       <c r="L4">
-        <v>0.34</v>
+        <v>0.19600000000000001</v>
       </c>
       <c r="M4">
-        <v>0.67</v>
+        <v>0.18</v>
       </c>
       <c r="N4">
-        <v>0.98</v>
+        <v>0.16200000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -647,37 +647,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D5">
-        <v>2.52</v>
+        <v>4.33</v>
       </c>
       <c r="E5">
-        <v>2.74</v>
+        <v>6.1559999999999997</v>
       </c>
       <c r="F5">
-        <v>3.28</v>
+        <v>7.0119999999999996</v>
       </c>
       <c r="G5">
-        <v>4.34</v>
+        <v>7.4119999999999999</v>
       </c>
       <c r="H5">
-        <v>4.22</v>
+        <v>5.657</v>
       </c>
       <c r="I5">
-        <v>4.8600000000000003</v>
+        <v>4.2030000000000003</v>
       </c>
       <c r="J5">
-        <v>3.45</v>
+        <v>3.173</v>
       </c>
       <c r="K5">
-        <v>2.7</v>
+        <v>2.097</v>
       </c>
       <c r="L5">
-        <v>2.19</v>
+        <v>1.6279999999999999</v>
       </c>
       <c r="M5">
-        <v>2.69</v>
+        <v>1.32</v>
       </c>
       <c r="N5">
-        <v>3.74</v>
+        <v>1.6759999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1562,5 +1562,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Gates/Figures/wv_clean.xlsx
+++ b/Gates/Figures/wv_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noelp\Documents\Kanazawa\Scripts_Kanazawa\Gates\Figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE9A88-48F5-452A-8946-120D7A2EF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27ABB9C9-E0B8-48A7-A3E8-EE2BD230BA39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
   </bookViews>
@@ -444,8 +444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A87CCA-59E7-D045-87EB-6932423A68D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29:V33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -691,37 +691,37 @@
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>2.5419999999999998</v>
+        <v>2.3319999999999999</v>
       </c>
       <c r="E6">
-        <v>2.7050000000000001</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="F6">
-        <v>2.472</v>
+        <v>1.5660000000000001</v>
       </c>
       <c r="G6">
-        <v>1.617</v>
+        <v>0.877</v>
       </c>
       <c r="H6">
-        <v>0.95</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="I6">
-        <v>0.47299999999999998</v>
+        <v>0.43</v>
       </c>
       <c r="J6">
-        <v>0.51700000000000002</v>
+        <v>0.32400000000000001</v>
       </c>
       <c r="K6">
-        <v>0.82499999999999996</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="L6">
-        <v>1.252</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="M6">
-        <v>1.1379999999999999</v>
+        <v>1.2010000000000001</v>
       </c>
       <c r="N6">
-        <v>1.2569999999999999</v>
+        <v>1.9319999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -735,37 +735,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D7">
-        <v>1.0069999999999999</v>
+        <v>1.4930000000000001</v>
       </c>
       <c r="E7">
-        <v>1.2889999999999999</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="F7">
-        <v>1.734</v>
+        <v>3.12</v>
       </c>
       <c r="G7">
-        <v>2.3109999999999999</v>
+        <v>3.226</v>
       </c>
       <c r="H7">
-        <v>2.6760000000000002</v>
+        <v>3.44</v>
       </c>
       <c r="I7">
-        <v>3.1280000000000001</v>
+        <v>3.2480000000000002</v>
       </c>
       <c r="J7">
-        <v>3.419</v>
+        <v>3.4239999999999999</v>
       </c>
       <c r="K7">
-        <v>3.625</v>
+        <v>4.22</v>
       </c>
       <c r="L7">
-        <v>4.306</v>
+        <v>4.9340000000000002</v>
       </c>
       <c r="M7">
-        <v>3.782</v>
+        <v>5.327</v>
       </c>
       <c r="N7">
-        <v>3.7280000000000002</v>
+        <v>5.6219999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -779,37 +779,37 @@
         <v>0.01</v>
       </c>
       <c r="D8">
-        <v>6.4660000000000002</v>
+        <v>5.8849999999999998</v>
       </c>
       <c r="E8">
-        <v>6.5620000000000003</v>
+        <v>5.141</v>
       </c>
       <c r="F8">
-        <v>6.9189999999999996</v>
+        <v>5.2709999999999999</v>
       </c>
       <c r="G8">
-        <v>5.4569999999999999</v>
+        <v>4.1749999999999998</v>
       </c>
       <c r="H8">
-        <v>4.6420000000000003</v>
+        <v>3.931</v>
       </c>
       <c r="I8">
-        <v>4.0620000000000003</v>
+        <v>3.5750000000000002</v>
       </c>
       <c r="J8">
-        <v>3.6589999999999998</v>
+        <v>2.3559999999999999</v>
       </c>
       <c r="K8">
-        <v>3.4279999999999999</v>
+        <v>1.8260000000000001</v>
       </c>
       <c r="L8">
-        <v>2.653</v>
+        <v>1.3340000000000001</v>
       </c>
       <c r="M8">
-        <v>1.72</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="N8">
-        <v>0.64400000000000002</v>
+        <v>2.2090000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -823,37 +823,37 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D9">
-        <v>3.556</v>
+        <v>2.7080000000000002</v>
       </c>
       <c r="E9">
-        <v>4.17</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="F9">
-        <v>5.12</v>
+        <v>3.7360000000000002</v>
       </c>
       <c r="G9">
-        <v>4.9290000000000003</v>
+        <v>3.3639999999999999</v>
       </c>
       <c r="H9">
-        <v>4.7</v>
+        <v>3.7930000000000001</v>
       </c>
       <c r="I9">
-        <v>4.1879999999999997</v>
+        <v>3.4089999999999998</v>
       </c>
       <c r="J9">
-        <v>3.839</v>
+        <v>3.72</v>
       </c>
       <c r="K9">
-        <v>3.4980000000000002</v>
+        <v>4.2939999999999996</v>
       </c>
       <c r="L9">
-        <v>3.2480000000000002</v>
+        <v>4.8170000000000002</v>
       </c>
       <c r="M9">
-        <v>2.6520000000000001</v>
+        <v>5.03</v>
       </c>
       <c r="N9">
-        <v>1.774</v>
+        <v>4.3710000000000004</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">

--- a/Gates/Figures/wv_clean.xlsx
+++ b/Gates/Figures/wv_clean.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noelp\Documents\Kanazawa\Scripts_Kanazawa\Gates\Figures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noelfpb/Documents/Research/Scripts/Gates/Figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9FE9A88-48F5-452A-8946-120D7A2EF793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64FE8386-75FD-894D-BFFA-C497D6ED765A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{2BD49CDD-FEC4-E246-AC98-261D03C74275}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -444,13 +444,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A87CCA-59E7-D045-87EB-6932423A68D0}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -504,7 +504,7 @@
         <v>1552.0000000000005</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -548,7 +548,7 @@
         <v>2.2759999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -592,7 +592,7 @@
         <v>1.157</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
         <v>1.6759999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -691,40 +691,40 @@
         <v>0.01</v>
       </c>
       <c r="D6">
-        <v>2.5419999999999998</v>
+        <v>2.2309999999999999</v>
       </c>
       <c r="E6">
-        <v>2.7050000000000001</v>
+        <v>1.7190000000000001</v>
       </c>
       <c r="F6">
-        <v>2.472</v>
+        <v>1.45</v>
       </c>
       <c r="G6">
-        <v>1.617</v>
+        <v>0.90400000000000003</v>
       </c>
       <c r="H6">
-        <v>0.95</v>
+        <v>0.59199999999999997</v>
       </c>
       <c r="I6">
-        <v>0.47299999999999998</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="J6">
-        <v>0.51700000000000002</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="K6">
-        <v>0.82499999999999996</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="L6">
-        <v>1.252</v>
+        <v>0.373</v>
       </c>
       <c r="M6">
-        <v>1.1379999999999999</v>
+        <v>0.751</v>
       </c>
       <c r="N6">
-        <v>1.2569999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>1.1779999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -735,40 +735,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D7">
-        <v>1.0069999999999999</v>
+        <v>3.302</v>
       </c>
       <c r="E7">
-        <v>1.2889999999999999</v>
+        <v>2.9510000000000001</v>
       </c>
       <c r="F7">
-        <v>1.734</v>
+        <v>2.6850000000000001</v>
       </c>
       <c r="G7">
-        <v>2.3109999999999999</v>
+        <v>2.3420000000000001</v>
       </c>
       <c r="H7">
-        <v>2.6760000000000002</v>
+        <v>2.4510000000000001</v>
       </c>
       <c r="I7">
-        <v>3.1280000000000001</v>
+        <v>2.7010000000000001</v>
       </c>
       <c r="J7">
-        <v>3.419</v>
+        <v>2.7829999999999999</v>
       </c>
       <c r="K7">
-        <v>3.625</v>
+        <v>2.9169999999999998</v>
       </c>
       <c r="L7">
-        <v>4.306</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="M7">
-        <v>3.782</v>
+        <v>2.9209999999999998</v>
       </c>
       <c r="N7">
-        <v>3.7280000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.911</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -779,40 +779,40 @@
         <v>0.01</v>
       </c>
       <c r="D8">
-        <v>6.4660000000000002</v>
+        <v>5.2859999999999996</v>
       </c>
       <c r="E8">
-        <v>6.5620000000000003</v>
+        <v>5.9050000000000002</v>
       </c>
       <c r="F8">
-        <v>6.9189999999999996</v>
+        <v>5.3410000000000002</v>
       </c>
       <c r="G8">
-        <v>5.4569999999999999</v>
+        <v>4.3849999999999998</v>
       </c>
       <c r="H8">
-        <v>4.6420000000000003</v>
+        <v>3.9580000000000002</v>
       </c>
       <c r="I8">
-        <v>4.0620000000000003</v>
+        <v>2.964</v>
       </c>
       <c r="J8">
-        <v>3.6589999999999998</v>
+        <v>2.786</v>
       </c>
       <c r="K8">
-        <v>3.4279999999999999</v>
+        <v>2.371</v>
       </c>
       <c r="L8">
-        <v>2.653</v>
+        <v>1.782</v>
       </c>
       <c r="M8">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="N8">
-        <v>0.64400000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>2.052</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -823,40 +823,40 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="D9">
-        <v>3.556</v>
+        <v>4.359</v>
       </c>
       <c r="E9">
-        <v>4.17</v>
+        <v>4.4930000000000003</v>
       </c>
       <c r="F9">
-        <v>5.12</v>
+        <v>4.5780000000000003</v>
       </c>
       <c r="G9">
-        <v>4.9290000000000003</v>
+        <v>3.5680000000000001</v>
       </c>
       <c r="H9">
-        <v>4.7</v>
+        <v>3.6230000000000002</v>
       </c>
       <c r="I9">
-        <v>4.1879999999999997</v>
+        <v>3.2709999999999999</v>
       </c>
       <c r="J9">
-        <v>3.839</v>
+        <v>3.11</v>
       </c>
       <c r="K9">
-        <v>3.4980000000000002</v>
+        <v>3.403</v>
       </c>
       <c r="L9">
-        <v>3.2480000000000002</v>
+        <v>3.7120000000000002</v>
       </c>
       <c r="M9">
-        <v>2.6520000000000001</v>
+        <v>3.8290000000000002</v>
       </c>
       <c r="N9">
-        <v>1.774</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>4.9219999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -900,7 +900,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -944,7 +944,7 @@
         <v>5.57</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -988,7 +988,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>2.5019999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1.369</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>2.1789999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>3.6110000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -1208,7 +1208,7 @@
         <v>2.988</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>2.6960000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>3.8079999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>0.27200000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -1428,7 +1428,7 @@
         <v>4.03</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>1.71</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>2.76</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
